--- a/Pyber/data/GroupCityType.xlsx
+++ b/Pyber/data/GroupCityType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olgataranukha/05_Matplotlib_Homework/Pyber/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4C654C-BC95-7D47-A317-436F58495914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C25A0-CEA9-904C-9EC0-643EC2E8E5F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="1180" windowWidth="18060" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -22072,7 +22072,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E127" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -24827,7 +24827,7 @@
   <dimension ref="A3:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25026,7 +25026,10 @@
       <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <f>MIN(C5:C22)</f>
+        <v>24.123333333333335</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
@@ -25044,7 +25047,10 @@
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <f>MAX(C5:C22)</f>
+        <v>43.278333333333336</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
